--- a/biology/Zoologie/Dermeste_du_lard/Dermeste_du_lard.xlsx
+++ b/biology/Zoologie/Dermeste_du_lard/Dermeste_du_lard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dermestes lardarius
-Le dermeste du lard (Dermestes lardarius) est une espèce d'insectes coléoptères de la famille des dermestidés et du genre Dermestes. On le trouve parfois dans les habitations. Cet insecte mange la chair morte et est très utile dans les musées qui les laissent nettoyer les carcasses fragiles en laissant intacts les squelettes[1].
+Le dermeste du lard (Dermestes lardarius) est une espèce d'insectes coléoptères de la famille des dermestidés et du genre Dermestes. On le trouve parfois dans les habitations. Cet insecte mange la chair morte et est très utile dans les musées qui les laissent nettoyer les carcasses fragiles en laissant intacts les squelettes.
 </t>
         </is>
       </c>
